--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13603\Desktop\STAIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D471584-AB32-4C75-AE08-81A6C8977E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317A2ED-9C4A-417E-B4B7-D3882E443C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="4140" windowWidth="19815" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Baby</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评价指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消融实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,11 +77,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超参数实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>γ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ=0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kt:kv=5:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ=0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +127,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -129,12 +175,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,15 +478,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:O26"/>
+  <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -446,10 +513,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -487,8 +553,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="1">
         <v>6.7900000000000002E-2</v>
       </c>
@@ -501,278 +569,350 @@
       <c r="G4" s="1">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.1042</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.53E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4.07E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1">
+        <v>0.05</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="J15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.1043</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4.5600000000000002E-2</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>0.2</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>0.3</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>0.4</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>0.5</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
-        <v>0.01</v>
-      </c>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -786,10 +926,8 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="1">
-        <v>0.05</v>
-      </c>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -803,10 +941,8 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
-        <v>0.1</v>
-      </c>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -820,10 +956,8 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
-        <v>0.2</v>
-      </c>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -837,10 +971,8 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="1">
-        <v>0.3</v>
-      </c>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -854,10 +986,8 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
-        <v>0.4</v>
-      </c>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -871,10 +1001,8 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <v>0.5</v>
-      </c>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -889,13 +1017,16 @@
       <c r="O26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D18:E18"/>
+  <mergeCells count="9">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13603\Desktop\STAIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4317A2ED-9C4A-417E-B4B7-D3882E443C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2C8F9-FB16-46BE-B141-B1F6615DE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="4140" windowWidth="19815" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18090" yWindow="1935" windowWidth="19815" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -175,11 +176,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,6 +192,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,7 +485,7 @@
   <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,24 +498,24 @@
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -595,43 +599,43 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.1042</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>4.53E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.11169999999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>4.07E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
@@ -665,13 +669,13 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -679,14 +683,14 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -699,9 +703,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -712,37 +716,37 @@
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="7" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -762,14 +766,14 @@
         <v>6</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M12" s="1"/>
@@ -781,16 +785,20 @@
         <v>8</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="1">
+      <c r="I13" s="4"/>
+      <c r="J13" s="7">
         <v>0.01</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="7">
+        <v>0.1016</v>
+      </c>
+      <c r="L13" s="7">
+        <v>4.3900000000000002E-2</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -800,16 +808,20 @@
         <v>9</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1">
+      <c r="I14" s="4"/>
+      <c r="J14" s="7">
         <v>0.05</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="7">
+        <v>0.1038</v>
+      </c>
+      <c r="L14" s="7">
+        <v>4.4699999999999997E-2</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -819,18 +831,18 @@
         <v>10</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>0.1</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="7">
         <v>0.1043</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="7">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="M15" s="1"/>
@@ -842,16 +854,20 @@
         <v>11</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1">
+      <c r="J16" s="7">
         <v>0.2</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="7">
+        <v>0.1037</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4.5400000000000003E-2</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -861,16 +877,20 @@
         <v>12</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1">
+      <c r="J17" s="7">
         <v>0.3</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="7">
+        <v>0.1013</v>
+      </c>
+      <c r="L17" s="7">
+        <v>4.4699999999999997E-2</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -878,17 +898,21 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1">
+      <c r="J18" s="7">
         <v>0.4</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="K18" s="7">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4.4299999999999999E-2</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -897,16 +921,20 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <v>0.5</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="7">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>4.3799999999999999E-2</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -919,9 +947,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1018,17 +1046,18 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>